--- a/data_year/zb/就业人员和工资/按行业分城镇单位就业人员工资总额.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分城镇单位就业人员工资总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1295 +538,835 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2541.94868</v>
+      </c>
+      <c r="C2" t="n">
+        <v>484.64552</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1171.65393</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5428.78976</v>
+      </c>
+      <c r="F2" t="n">
+        <v>627.05832</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11140.78986</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2506.40521</v>
+      </c>
       <c r="I2" t="n">
-        <v>10954.7</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>47269.88554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>168.4421</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3471.5483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>745.5819</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1782.9711</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6136.53701</v>
+      </c>
+      <c r="O2" t="n">
+        <v>543.73504</v>
+      </c>
+      <c r="P2" t="n">
+        <v>555.89039</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1468.27785</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1619.29322</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1198.45181</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2458.83715</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3219.02839</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3074.05876</v>
+      </c>
+      <c r="C3" t="n">
+        <v>655.21782</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1475.58504</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6118.0684</v>
+      </c>
+      <c r="F3" t="n">
+        <v>697.65061</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15031.36541</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3078.648</v>
+      </c>
       <c r="I3" t="n">
-        <v>12205.4</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>59954.66188</v>
+      </c>
+      <c r="J3" t="n">
+        <v>197.88888</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5596.35742</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1052.54275</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2594.75017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6938.81667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>642.07024</v>
+      </c>
+      <c r="P3" t="n">
+        <v>659.7924</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1755.72758</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1879.5766</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1325.28424</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3174.24163</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4007.01926</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3531.50643</v>
+      </c>
+      <c r="C4" t="n">
+        <v>824.4445899999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1769.43681</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7058.33056</v>
+      </c>
+      <c r="F4" t="n">
+        <v>760.8293</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17668.07181</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3718.45811</v>
+      </c>
       <c r="I4" t="n">
-        <v>13638.1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>70914.20915</v>
+      </c>
+      <c r="J4" t="n">
+        <v>217.10325</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7392.68096</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1271.26085</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3271.27374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7850.99633</v>
+      </c>
+      <c r="O4" t="n">
+        <v>735.44338</v>
+      </c>
+      <c r="P4" t="n">
+        <v>784.55539</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1999.62223</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2259.38003</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1531.16203</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3600.67152</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4668.98183</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1008.01522</v>
+        <v>4834.55955</v>
       </c>
       <c r="C5" t="n">
-        <v>190.91042</v>
+        <v>1038.33335</v>
       </c>
       <c r="D5" t="n">
-        <v>355.97305</v>
+        <v>2957.72122</v>
       </c>
       <c r="E5" t="n">
-        <v>1787.5627</v>
+        <v>7675.01895</v>
       </c>
       <c r="F5" t="n">
-        <v>335.79506</v>
+        <v>757.96003</v>
       </c>
       <c r="G5" t="n">
-        <v>3772.65907</v>
+        <v>24566.6367</v>
       </c>
       <c r="H5" t="n">
-        <v>782.07871</v>
+        <v>4397.76942</v>
       </c>
       <c r="I5" t="n">
-        <v>15329.6</v>
+        <v>93064.29104</v>
       </c>
       <c r="J5" t="n">
-        <v>66.39547</v>
+        <v>277.16388</v>
       </c>
       <c r="K5" t="n">
-        <v>965.88643</v>
+        <v>12315.08618</v>
       </c>
       <c r="L5" t="n">
-        <v>202.72319</v>
+        <v>1882.30111</v>
       </c>
       <c r="M5" t="n">
-        <v>696.34488</v>
+        <v>4451.91989</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.87199</v>
+        <v>8721.140729999999</v>
       </c>
       <c r="O5" t="n">
-        <v>217.87602</v>
+        <v>867.8104</v>
       </c>
       <c r="P5" t="n">
-        <v>202.62472</v>
+        <v>933.65912</v>
       </c>
       <c r="Q5" t="n">
-        <v>551.98525</v>
+        <v>2715.29747</v>
       </c>
       <c r="R5" t="n">
-        <v>454.43054</v>
+        <v>2940.32219</v>
       </c>
       <c r="S5" t="n">
-        <v>305.22782</v>
+        <v>2629.37771</v>
       </c>
       <c r="T5" t="n">
-        <v>662.86428</v>
+        <v>3833.17795</v>
       </c>
       <c r="U5" t="n">
-        <v>734.41929</v>
+        <v>5269.03519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144.7214</v>
+        <v>5435.39691</v>
       </c>
       <c r="C6" t="n">
-        <v>221.22808</v>
+        <v>1079.10424</v>
       </c>
       <c r="D6" t="n">
-        <v>404.32372</v>
+        <v>3375.76313</v>
       </c>
       <c r="E6" t="n">
-        <v>2072.72819</v>
+        <v>8448.649799999999</v>
       </c>
       <c r="F6" t="n">
-        <v>351.15724</v>
+        <v>808.85772</v>
       </c>
       <c r="G6" t="n">
-        <v>4316.44061</v>
+        <v>27011.39011</v>
       </c>
       <c r="H6" t="n">
-        <v>902.27322</v>
+        <v>5057.82262</v>
       </c>
       <c r="I6" t="n">
-        <v>17615</v>
+        <v>102817.23364</v>
       </c>
       <c r="J6" t="n">
-        <v>71.84477</v>
+        <v>312.90865</v>
       </c>
       <c r="K6" t="n">
-        <v>1081.27447</v>
+        <v>13389.37459</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2537</v>
+        <v>2220.53917</v>
       </c>
       <c r="M6" t="n">
-        <v>770.51954</v>
+        <v>4931.392</v>
       </c>
       <c r="N6" t="n">
-        <v>2346.18587</v>
+        <v>9722.46694</v>
       </c>
       <c r="O6" t="n">
-        <v>251.54983</v>
+        <v>936.76558</v>
       </c>
       <c r="P6" t="n">
-        <v>226.12656</v>
+        <v>1049.85547</v>
       </c>
       <c r="Q6" t="n">
-        <v>646.78144</v>
+        <v>2965.78454</v>
       </c>
       <c r="R6" t="n">
-        <v>514.62063</v>
+        <v>3339.7094</v>
       </c>
       <c r="S6" t="n">
-        <v>351.37772</v>
+        <v>2985.91049</v>
       </c>
       <c r="T6" t="n">
-        <v>831.84185</v>
+        <v>3728.18988</v>
       </c>
       <c r="U6" t="n">
-        <v>866.74656</v>
+        <v>6017.3524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1279.50378</v>
+        <v>5897.95639</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8096</v>
+        <v>1130.04608</v>
       </c>
       <c r="D7" t="n">
-        <v>491.82788</v>
+        <v>3912.71411</v>
       </c>
       <c r="E7" t="n">
-        <v>2489.63446</v>
+        <v>10141.42606</v>
       </c>
       <c r="F7" t="n">
-        <v>368.65081</v>
+        <v>862.5835499999999</v>
       </c>
       <c r="G7" t="n">
-        <v>5056.62724</v>
+        <v>28341.61354</v>
       </c>
       <c r="H7" t="n">
-        <v>1047.80915</v>
+        <v>5941.32191</v>
       </c>
       <c r="I7" t="n">
-        <v>20627.06573</v>
+        <v>112007.79029</v>
       </c>
       <c r="J7" t="n">
-        <v>85.12768</v>
+        <v>336.09705</v>
       </c>
       <c r="K7" t="n">
-        <v>1324.67621</v>
+        <v>13619.3446</v>
       </c>
       <c r="L7" t="n">
-        <v>293.00566</v>
+        <v>2493.03243</v>
       </c>
       <c r="M7" t="n">
-        <v>831.95536</v>
+        <v>5324.57996</v>
       </c>
       <c r="N7" t="n">
-        <v>2690.81408</v>
+        <v>11492.13423</v>
       </c>
       <c r="O7" t="n">
-        <v>275.81204</v>
+        <v>1085.99954</v>
       </c>
       <c r="P7" t="n">
-        <v>257.345</v>
+        <v>1177.6719</v>
       </c>
       <c r="Q7" t="n">
-        <v>741.82231</v>
+        <v>3137.39469</v>
       </c>
       <c r="R7" t="n">
-        <v>613.95088</v>
+        <v>3665.75265</v>
       </c>
       <c r="S7" t="n">
-        <v>449.78882</v>
+        <v>3399.85638</v>
       </c>
       <c r="T7" t="n">
-        <v>1031.24673</v>
+        <v>3318.18553</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.65804</v>
+        <v>6730.07969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.53963</v>
+        <v>6238.68956</v>
       </c>
       <c r="C8" t="n">
-        <v>280.04675</v>
+        <v>1167.90207</v>
       </c>
       <c r="D8" t="n">
-        <v>587.40948</v>
+        <v>4431.75443</v>
       </c>
       <c r="E8" t="n">
-        <v>2839.72983</v>
+        <v>11787.22314</v>
       </c>
       <c r="F8" t="n">
-        <v>403.33504</v>
+        <v>882.13938</v>
       </c>
       <c r="G8" t="n">
-        <v>6035.77386</v>
+        <v>29088.87956</v>
       </c>
       <c r="H8" t="n">
-        <v>1226.09317</v>
+        <v>6825.5582</v>
       </c>
       <c r="I8" t="n">
-        <v>24262.32307</v>
+        <v>120074.80139</v>
       </c>
       <c r="J8" t="n">
-        <v>102.50126</v>
+        <v>357.77599</v>
       </c>
       <c r="K8" t="n">
-        <v>1612.06319</v>
+        <v>13969.18978</v>
       </c>
       <c r="L8" t="n">
-        <v>338.36544</v>
+        <v>2802.10107</v>
       </c>
       <c r="M8" t="n">
-        <v>919.9983</v>
+        <v>5681.1736</v>
       </c>
       <c r="N8" t="n">
-        <v>3127.81628</v>
+        <v>12787.0716</v>
       </c>
       <c r="O8" t="n">
-        <v>314.85317</v>
+        <v>1204.44119</v>
       </c>
       <c r="P8" t="n">
-        <v>289.8295</v>
+        <v>1278.22982</v>
       </c>
       <c r="Q8" t="n">
-        <v>858.00161</v>
+        <v>3235.7157</v>
       </c>
       <c r="R8" t="n">
-        <v>736.91131</v>
+        <v>4037.26872</v>
       </c>
       <c r="S8" t="n">
-        <v>565.56125</v>
+        <v>3704.27875</v>
       </c>
       <c r="T8" t="n">
-        <v>1259.56912</v>
+        <v>3038.12509</v>
       </c>
       <c r="U8" t="n">
-        <v>1292.92488</v>
+        <v>7557.28374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1727.85401</v>
+        <v>6754.08248</v>
       </c>
       <c r="C9" t="n">
-        <v>314.5891</v>
+        <v>1211.94847</v>
       </c>
       <c r="D9" t="n">
-        <v>699.07881</v>
+        <v>5198.41448</v>
       </c>
       <c r="E9" t="n">
-        <v>3553.75111</v>
+        <v>13753.49996</v>
       </c>
       <c r="F9" t="n">
-        <v>464.62569</v>
+        <v>949.92536</v>
       </c>
       <c r="G9" t="n">
-        <v>7241.15135</v>
+        <v>29740.54944</v>
       </c>
       <c r="H9" t="n">
-        <v>1496.56804</v>
+        <v>7930.76867</v>
       </c>
       <c r="I9" t="n">
-        <v>29471.51498</v>
+        <v>129889.05708</v>
       </c>
       <c r="J9" t="n">
-        <v>115.82357</v>
+        <v>390.23573</v>
       </c>
       <c r="K9" t="n">
-        <v>1946.21012</v>
+        <v>14283.91645</v>
       </c>
       <c r="L9" t="n">
-        <v>426.18093</v>
+        <v>3059.26096</v>
       </c>
       <c r="M9" t="n">
-        <v>1061.80058</v>
+        <v>5980.05759</v>
       </c>
       <c r="N9" t="n">
-        <v>3917.20654</v>
+        <v>14324.37979</v>
       </c>
       <c r="O9" t="n">
-        <v>378.1238</v>
+        <v>1339.93673</v>
       </c>
       <c r="P9" t="n">
-        <v>352.18663</v>
+        <v>1394.34232</v>
       </c>
       <c r="Q9" t="n">
-        <v>1012.72562</v>
+        <v>3406.56067</v>
       </c>
       <c r="R9" t="n">
-        <v>923.92359</v>
+        <v>4491.52202</v>
       </c>
       <c r="S9" t="n">
-        <v>668.89655</v>
+        <v>4176.03878</v>
       </c>
       <c r="T9" t="n">
-        <v>1500.48171</v>
+        <v>3208.58113</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.33723</v>
+        <v>8295.036050000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2006.30352</v>
+        <v>7273.29617</v>
       </c>
       <c r="C10" t="n">
-        <v>371.22937</v>
+        <v>1292.95723</v>
       </c>
       <c r="D10" t="n">
-        <v>862.82857</v>
+        <v>6204.08669</v>
       </c>
       <c r="E10" t="n">
-        <v>4275.96589</v>
+        <v>15882.79205</v>
       </c>
       <c r="F10" t="n">
-        <v>516.42272</v>
+        <v>716.0935899999999</v>
       </c>
       <c r="G10" t="n">
-        <v>8498.911980000001</v>
+        <v>30384.95973</v>
       </c>
       <c r="H10" t="n">
-        <v>1789.25529</v>
+        <v>8857.783960000001</v>
       </c>
       <c r="I10" t="n">
-        <v>35289.49727</v>
+        <v>141479.99653</v>
       </c>
       <c r="J10" t="n">
-        <v>132.11165</v>
+        <v>423.82095</v>
       </c>
       <c r="K10" t="n">
-        <v>2313.61581</v>
+        <v>15949.5267</v>
       </c>
       <c r="L10" t="n">
-        <v>520.84271</v>
+        <v>3507.8376</v>
       </c>
       <c r="M10" t="n">
-        <v>1323.94447</v>
+        <v>6628.53895</v>
       </c>
       <c r="N10" t="n">
-        <v>4556.0961</v>
+        <v>15928.09798</v>
       </c>
       <c r="O10" t="n">
-        <v>429.30578</v>
+        <v>1450.66961</v>
       </c>
       <c r="P10" t="n">
-        <v>413.80801</v>
+        <v>1456.46676</v>
       </c>
       <c r="Q10" t="n">
-        <v>1180.36417</v>
+        <v>3703.98498</v>
       </c>
       <c r="R10" t="n">
-        <v>1154.61445</v>
+        <v>5045.09886</v>
       </c>
       <c r="S10" t="n">
-        <v>893.68098</v>
+        <v>4453.30613</v>
       </c>
       <c r="T10" t="n">
-        <v>1847.29244</v>
+        <v>3413.37746</v>
       </c>
       <c r="U10" t="n">
-        <v>2202.90336</v>
+        <v>8907.30113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2234.89858</v>
+        <v>7913.85911</v>
       </c>
       <c r="C11" t="n">
-        <v>418.86999</v>
+        <v>1330.4994</v>
       </c>
       <c r="D11" t="n">
-        <v>996.2291</v>
+        <v>7281.12332</v>
       </c>
       <c r="E11" t="n">
-        <v>4896.80199</v>
+        <v>18651.11833</v>
       </c>
       <c r="F11" t="n">
-        <v>537.41095</v>
+        <v>535.1115600000001</v>
       </c>
       <c r="G11" t="n">
-        <v>9302.200220000001</v>
+        <v>30197.49331</v>
       </c>
       <c r="H11" t="n">
-        <v>2095.29746</v>
+        <v>10812.94916</v>
       </c>
       <c r="I11" t="n">
-        <v>40288.16311</v>
+        <v>154296.07035</v>
       </c>
       <c r="J11" t="n">
-        <v>146.7806</v>
+        <v>520.11005</v>
       </c>
       <c r="K11" t="n">
-        <v>2837.88514</v>
+        <v>14431.71738</v>
       </c>
       <c r="L11" t="n">
-        <v>607.7843</v>
+        <v>4057.44121</v>
       </c>
       <c r="M11" t="n">
-        <v>1509.21283</v>
+        <v>7402.16799</v>
       </c>
       <c r="N11" t="n">
-        <v>5338.6051</v>
+        <v>18445.28742</v>
       </c>
       <c r="O11" t="n">
-        <v>488.5121</v>
+        <v>1628.68932</v>
       </c>
       <c r="P11" t="n">
-        <v>474.31526</v>
+        <v>1491.21133</v>
       </c>
       <c r="Q11" t="n">
-        <v>1283.45454</v>
+        <v>4030.11394</v>
       </c>
       <c r="R11" t="n">
-        <v>1350.60681</v>
+        <v>5740.51512</v>
       </c>
       <c r="S11" t="n">
-        <v>1021.39453</v>
+        <v>5727.16235</v>
       </c>
       <c r="T11" t="n">
-        <v>2089.11603</v>
+        <v>3388.18581</v>
       </c>
       <c r="U11" t="n">
-        <v>2658.78758</v>
+        <v>10711.31424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2541.94868</v>
+        <v>8171.83029</v>
       </c>
       <c r="C12" t="n">
-        <v>484.64552</v>
+        <v>1227.98502</v>
       </c>
       <c r="D12" t="n">
-        <v>1171.65393</v>
+        <v>8444.54679</v>
       </c>
       <c r="E12" t="n">
-        <v>5428.78976</v>
+        <v>20522.30827</v>
       </c>
       <c r="F12" t="n">
-        <v>627.05832</v>
+        <v>410.55396</v>
       </c>
       <c r="G12" t="n">
-        <v>11140.78986</v>
+        <v>31352.91101</v>
       </c>
       <c r="H12" t="n">
-        <v>2506.40521</v>
+        <v>11966.80908</v>
       </c>
       <c r="I12" t="n">
-        <v>47269.88554</v>
+        <v>164126.86507814</v>
       </c>
       <c r="J12" t="n">
-        <v>168.4421</v>
+        <v>498.67946</v>
       </c>
       <c r="K12" t="n">
-        <v>3471.5483</v>
+        <v>14376.20462</v>
       </c>
       <c r="L12" t="n">
-        <v>745.5819</v>
+        <v>4401.68378</v>
       </c>
       <c r="M12" t="n">
-        <v>1782.9711</v>
+        <v>7623.39244</v>
       </c>
       <c r="N12" t="n">
-        <v>6136.53701</v>
+        <v>20565.84021</v>
       </c>
       <c r="O12" t="n">
-        <v>543.73504</v>
+        <v>1670.03518</v>
       </c>
       <c r="P12" t="n">
-        <v>555.89039</v>
+        <v>1576.14452</v>
       </c>
       <c r="Q12" t="n">
-        <v>1468.27785</v>
+        <v>4420.00431</v>
       </c>
       <c r="R12" t="n">
-        <v>1619.29322</v>
+        <v>5959.96487</v>
       </c>
       <c r="S12" t="n">
-        <v>1198.45181</v>
+        <v>5890.15029</v>
       </c>
       <c r="T12" t="n">
-        <v>2458.83715</v>
+        <v>3428.83359</v>
       </c>
       <c r="U12" t="n">
-        <v>3219.02839</v>
+        <v>11618.98741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3074.05876</v>
+        <v>8793.449119999999</v>
       </c>
       <c r="C13" t="n">
-        <v>655.21782</v>
+        <v>1414.05348</v>
       </c>
       <c r="D13" t="n">
-        <v>1475.58504</v>
+        <v>10289.03467</v>
       </c>
       <c r="E13" t="n">
-        <v>6118.0684</v>
+        <v>21974.76624</v>
       </c>
       <c r="F13" t="n">
-        <v>697.65061</v>
+        <v>471.38679</v>
       </c>
       <c r="G13" t="n">
-        <v>15031.36541</v>
+        <v>35232.76659</v>
       </c>
       <c r="H13" t="n">
-        <v>3078.648</v>
+        <v>13673.03337</v>
       </c>
       <c r="I13" t="n">
-        <v>59954.66188</v>
+        <v>180817.52521827</v>
       </c>
       <c r="J13" t="n">
-        <v>197.88888</v>
+        <v>555.28057</v>
       </c>
       <c r="K13" t="n">
-        <v>5596.35742</v>
+        <v>14514.96709</v>
       </c>
       <c r="L13" t="n">
-        <v>1052.54275</v>
+        <v>4852.65092</v>
       </c>
       <c r="M13" t="n">
-        <v>2594.75017</v>
+        <v>8560.64338</v>
       </c>
       <c r="N13" t="n">
-        <v>6938.81667</v>
+        <v>21754.3285</v>
       </c>
       <c r="O13" t="n">
-        <v>642.07024</v>
+        <v>1778.12526</v>
       </c>
       <c r="P13" t="n">
-        <v>659.7924</v>
+        <v>1668.78392</v>
       </c>
       <c r="Q13" t="n">
-        <v>1755.72758</v>
+        <v>4784.36308</v>
       </c>
       <c r="R13" t="n">
-        <v>1879.5766</v>
+        <v>6770.57685</v>
       </c>
       <c r="S13" t="n">
-        <v>1325.28424</v>
+        <v>6923.33632</v>
       </c>
       <c r="T13" t="n">
-        <v>3174.24163</v>
+        <v>3742.27431</v>
       </c>
       <c r="U13" t="n">
-        <v>4007.01926</v>
+        <v>13063.70475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3531.50643</v>
-      </c>
-      <c r="C14" t="n">
-        <v>824.4445899999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1769.43681</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7058.33056</v>
-      </c>
-      <c r="F14" t="n">
-        <v>760.8293</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17668.07181</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3718.45811</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>70914.20915</v>
-      </c>
-      <c r="J14" t="n">
-        <v>217.10325</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7392.68096</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1271.26085</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3271.27374</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7850.99633</v>
-      </c>
-      <c r="O14" t="n">
-        <v>735.44338</v>
-      </c>
-      <c r="P14" t="n">
-        <v>784.55539</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1999.62223</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2259.38003</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1531.16203</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3600.67152</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4668.98183</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4834.55955</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1038.33335</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2957.72122</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7675.01895</v>
-      </c>
-      <c r="F15" t="n">
-        <v>757.96003</v>
-      </c>
-      <c r="G15" t="n">
-        <v>24566.6367</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4397.76942</v>
-      </c>
-      <c r="I15" t="n">
-        <v>93064.29104</v>
-      </c>
-      <c r="J15" t="n">
-        <v>277.16388</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12315.08618</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1882.30111</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4451.91989</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8721.140729999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>867.8104</v>
-      </c>
-      <c r="P15" t="n">
-        <v>933.65912</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2715.29747</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2940.32219</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2629.37771</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3833.17795</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5269.03519</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5435.39691</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1079.10424</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3375.76313</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8448.649799999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>808.85772</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27011.39011</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5057.82262</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102817.23364</v>
-      </c>
-      <c r="J16" t="n">
-        <v>312.90865</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13389.37459</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2220.53917</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4931.392</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9722.46694</v>
-      </c>
-      <c r="O16" t="n">
-        <v>936.76558</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1049.85547</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2965.78454</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3339.7094</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2985.91049</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3728.18988</v>
-      </c>
-      <c r="U16" t="n">
-        <v>6017.3524</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5897.95639</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1130.04608</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3912.71411</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10141.42606</v>
-      </c>
-      <c r="F17" t="n">
-        <v>862.5835499999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28341.61354</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5941.32191</v>
-      </c>
-      <c r="I17" t="n">
-        <v>112007.79029</v>
-      </c>
-      <c r="J17" t="n">
-        <v>336.09705</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13619.3446</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2493.03243</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5324.57996</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11492.13423</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1085.99954</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1177.6719</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3137.39469</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3665.75265</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3399.85638</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3318.18553</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6730.07969</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6238.68956</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1167.90207</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4431.75443</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11787.22314</v>
-      </c>
-      <c r="F18" t="n">
-        <v>882.13938</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29088.87956</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6825.5582</v>
-      </c>
-      <c r="I18" t="n">
-        <v>120074.80139</v>
-      </c>
-      <c r="J18" t="n">
-        <v>357.77599</v>
-      </c>
-      <c r="K18" t="n">
-        <v>13969.18978</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2802.10107</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5681.1736</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12787.0716</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1204.44119</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1278.22982</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3235.7157</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4037.26872</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3704.27875</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3038.12509</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7557.28374</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6754.08248</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1211.94847</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5198.41448</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13753.49996</v>
-      </c>
-      <c r="F19" t="n">
-        <v>949.92536</v>
-      </c>
-      <c r="G19" t="n">
-        <v>29740.54944</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7930.76867</v>
-      </c>
-      <c r="I19" t="n">
-        <v>129889.05708</v>
-      </c>
-      <c r="J19" t="n">
-        <v>390.23573</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14283.91645</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3059.26096</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5980.05759</v>
-      </c>
-      <c r="N19" t="n">
-        <v>14324.37979</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1339.93673</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1394.34232</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3406.56067</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4491.52202</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4176.03878</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3208.58113</v>
-      </c>
-      <c r="U19" t="n">
-        <v>8295.036050000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7273.29617</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1292.95723</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6204.08669</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15882.79205</v>
-      </c>
-      <c r="F20" t="n">
-        <v>716.0935899999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>30384.95973</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8857.783960000001</v>
-      </c>
-      <c r="I20" t="n">
-        <v>141479.99653</v>
-      </c>
-      <c r="J20" t="n">
-        <v>423.82095</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15949.5267</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3507.8376</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6628.53895</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15928.09798</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1450.66961</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1456.46676</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3703.98498</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5045.09886</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4453.30613</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3413.37746</v>
-      </c>
-      <c r="U20" t="n">
-        <v>8907.30113</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7913.85911</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1330.4994</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7281.12332</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18651.11833</v>
-      </c>
-      <c r="F21" t="n">
-        <v>535.1115600000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30197.49331</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10812.94916</v>
-      </c>
-      <c r="I21" t="n">
-        <v>154296.07035</v>
-      </c>
-      <c r="J21" t="n">
-        <v>520.11005</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14431.71738</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4057.44121</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7402.16799</v>
-      </c>
-      <c r="N21" t="n">
-        <v>18445.28742</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1628.68932</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1491.21133</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4030.11394</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5740.51512</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5727.16235</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3388.18581</v>
-      </c>
-      <c r="U21" t="n">
-        <v>10711.31424</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8171.83029</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1227.98502</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8444.54679</v>
-      </c>
-      <c r="E22" t="n">
-        <v>20522.30827</v>
-      </c>
-      <c r="F22" t="n">
-        <v>410.55396</v>
-      </c>
-      <c r="G22" t="n">
-        <v>31352.91101</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11966.80908</v>
-      </c>
-      <c r="I22" t="n">
-        <v>164126.86507814</v>
-      </c>
-      <c r="J22" t="n">
-        <v>498.67946</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14376.20462</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4401.68378</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7623.39244</v>
-      </c>
-      <c r="N22" t="n">
-        <v>20565.84021</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1670.03518</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1576.14452</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4420.00431</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5959.96487</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5890.15029</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3428.83359</v>
-      </c>
-      <c r="U22" t="n">
-        <v>11618.98741</v>
-      </c>
+        <v>190820.22094105</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
